--- a/data/data_out/v2023/nominal_values.xlsx
+++ b/data/data_out/v2023/nominal_values.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="14">
   <si>
     <t>substrate</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>XL [%DM]</t>
+  </si>
+  <si>
+    <t>Substrate</t>
   </si>
 </sst>
 </file>
@@ -113,7 +116,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>8</v>

--- a/data/data_out/v2023/nominal_values.xlsx
+++ b/data/data_out/v2023/nominal_values.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="325" uniqueCount="14">
   <si>
     <t>substrate</t>
   </si>

--- a/data/data_out/v2023/nominal_values.xlsx
+++ b/data/data_out/v2023/nominal_values.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="325" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="351" uniqueCount="14">
   <si>
     <t>substrate</t>
   </si>

--- a/data/data_out/v2023/nominal_values.xlsx
+++ b/data/data_out/v2023/nominal_values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE53B577-A625-46AE-B68A-961D636C52A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="78" uniqueCount="13">
   <si>
     <t>Maissilage</t>
   </si>
@@ -64,8 +64,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -80,12 +80,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,13 +93,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -269,7 +271,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -293,9 +295,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -319,7 +321,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -354,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -372,7 +374,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -397,7 +399,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -433,178 +435,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="22.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
+        <v>33.728638042920537</v>
+      </c>
+      <c r="C2" s="1">
         <v>357</v>
       </c>
-      <c r="C2" s="1">
-        <v>33.728638042920537</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>4.4315575632332269</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>7.8082189731229574</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>2.4438867070443604</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="0" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>31.740981564826821</v>
+      </c>
+      <c r="C3" s="1">
         <v>372</v>
       </c>
-      <c r="C3" s="1">
-        <v>31.740981564826821</v>
-      </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>11.293628445721314</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>13.927759160019068</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>2.1406370803527901</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
+        <v>33.299535563188151</v>
+      </c>
+      <c r="C4" s="0">
         <v>240</v>
       </c>
-      <c r="C4">
-        <v>33.299535563188151</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>2.9428597170451924</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>2.8028317230897306</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>1.9006454621624531</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
+        <v>39.274595927801137</v>
+      </c>
+      <c r="C5" s="1">
         <v>389</v>
       </c>
-      <c r="C5" s="1">
-        <v>39.274595927801137</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>9.3850801448595398</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>3.3873385121264654</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>0.18607990284905196</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>8.0840310707442438</v>
+      </c>
+      <c r="C6" s="1">
         <v>246</v>
       </c>
-      <c r="C6" s="1">
-        <v>8.0840310707442438</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>23.649321877490571</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>16.631516947020856</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>2.3849604387876924</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
+        <v>5.7522989176108359</v>
+      </c>
+      <c r="C7" s="0">
         <v>230</v>
       </c>
-      <c r="C7">
-        <v>5.7522989176108359</v>
-      </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>31.731625383146973</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>19.316258809926872</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>3.8571351278646695</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
+        <v>52.978746868648663</v>
+      </c>
+      <c r="C8" s="0">
         <v>272</v>
       </c>
-      <c r="C8">
-        <v>52.978746868648663</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>33.408555436148568</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>26.011663826775742</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>4.1629432381429829</v>
       </c>
     </row>
